--- a/stdcount.xlsx
+++ b/stdcount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>COURSE</t>
   </si>
@@ -34,7 +34,7 @@
     <t>L1</t>
   </si>
   <si>
-    <t>adas</t>
+    <t>ELECTROMAGNETIC THEO II</t>
   </si>
   <si>
     <t>T1</t>
@@ -43,118 +43,196 @@
     <t>PHYF243</t>
   </si>
   <si>
+    <t>MATH METHODS OF  PHYSICS</t>
+  </si>
+  <si>
     <t>PHYF244</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
+    <t>MODERN PHYSICS LAB</t>
+  </si>
+  <si>
     <t>EEEF111</t>
   </si>
   <si>
     <t>L3</t>
   </si>
   <si>
+    <t>ELECTRICAL SCIENCES</t>
+  </si>
+  <si>
     <t>GSF312</t>
   </si>
   <si>
+    <t>APPLIED PHILOSOPHY</t>
+  </si>
+  <si>
     <t>ECONF211</t>
   </si>
   <si>
     <t>L2</t>
   </si>
   <si>
+    <t>PRINCIPLES OF ECONOMICS</t>
+  </si>
+  <si>
     <t>T2</t>
   </si>
   <si>
     <t>INSTRF342</t>
   </si>
   <si>
+    <t>POWER ELECTRONICS</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
     <t>ECONF315</t>
   </si>
   <si>
+    <t>FINANCIAL MANAGEMENT</t>
+  </si>
+  <si>
     <t>HSSF343</t>
   </si>
   <si>
+    <t>PROFESSIONAL ETHICS</t>
+  </si>
+  <si>
     <t>BITSF112</t>
   </si>
   <si>
+    <t>TECH REPORT WRITING</t>
+  </si>
+  <si>
     <t>PHYF111</t>
   </si>
   <si>
+    <t>MECH OSCIL &amp; WAVES</t>
+  </si>
+  <si>
     <t>PHYF110</t>
   </si>
   <si>
     <t>P13</t>
   </si>
   <si>
+    <t>PHYSICS LABORATORY</t>
+  </si>
+  <si>
     <t>CHEMF110</t>
   </si>
   <si>
     <t>P11</t>
   </si>
   <si>
+    <t>CHEMISTRY LABORATORY</t>
+  </si>
+  <si>
     <t>BITSF111</t>
   </si>
   <si>
+    <t>THERMODYNAMICS</t>
+  </si>
+  <si>
     <t>CSF111</t>
   </si>
   <si>
+    <t>COMPUTER PROGRAMMING</t>
+  </si>
+  <si>
     <t>MATHF112</t>
   </si>
   <si>
+    <t>MATHEMATICS-II</t>
+  </si>
+  <si>
     <t>MEF110</t>
   </si>
   <si>
     <t>P4</t>
   </si>
   <si>
+    <t>WORKSHOP PRACTICE</t>
+  </si>
+  <si>
     <t>BIOF110</t>
   </si>
   <si>
     <t>P5</t>
   </si>
   <si>
+    <t>BIOLOGICAL LABORATORY</t>
+  </si>
+  <si>
     <t>L11</t>
   </si>
   <si>
     <t>BITSF110</t>
   </si>
   <si>
+    <t>ENGINEERING GRAPHICS</t>
+  </si>
+  <si>
     <t>MATHF113</t>
   </si>
   <si>
     <t>L6</t>
   </si>
   <si>
+    <t>PROBABILITY &amp; STATISTICS</t>
+  </si>
+  <si>
     <t>P10</t>
   </si>
   <si>
     <t>INSTRF244</t>
   </si>
   <si>
+    <t>MICROELECTRONIC CIRCUITS</t>
+  </si>
+  <si>
     <t>INSTRF243</t>
   </si>
   <si>
+    <t>SIGNALS &amp; SYSTEMS</t>
+  </si>
+  <si>
     <t>INSTRF242</t>
   </si>
   <si>
+    <t>CONTROL SYSTEMS</t>
+  </si>
+  <si>
     <t>INSTRF241</t>
   </si>
   <si>
+    <t>MICROPROC &amp; INTERFACING</t>
+  </si>
+  <si>
     <t>MGTSF211</t>
   </si>
   <si>
+    <t>PRINCIPLES OF MANAGEMENT</t>
+  </si>
+  <si>
     <t>L4</t>
   </si>
   <si>
     <t>HSSF371</t>
   </si>
   <si>
+    <t>Cities-Life Issues &amp; Conflicts</t>
+  </si>
+  <si>
     <t>HSSF374</t>
+  </si>
+  <si>
+    <t>Urban Modrn &amp; Renewal of Paris</t>
   </si>
 </sst>
 </file>
@@ -559,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -573,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
@@ -581,13 +659,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -595,13 +673,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>12</v>
@@ -609,13 +687,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -623,13 +701,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -637,13 +715,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -651,13 +729,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -665,13 +743,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -679,13 +757,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>6</v>
@@ -693,13 +771,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
@@ -707,13 +785,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>6</v>
@@ -721,13 +799,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
@@ -735,13 +813,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>6</v>
@@ -749,13 +827,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
@@ -763,13 +841,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>6</v>
@@ -777,13 +855,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>6</v>
@@ -791,13 +869,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
@@ -805,13 +883,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
@@ -819,13 +897,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D24" s="2">
         <v>6</v>
@@ -833,13 +911,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
@@ -847,13 +925,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
@@ -861,13 +939,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2">
         <v>6</v>
@@ -875,13 +953,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2">
         <v>6</v>
@@ -889,13 +967,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2">
         <v>6</v>
@@ -903,13 +981,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <v>6</v>
@@ -917,13 +995,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>6</v>
@@ -931,13 +1009,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2">
         <v>6</v>
@@ -945,13 +1023,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2">
         <v>6</v>
@@ -959,13 +1037,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D34" s="2">
         <v>6</v>
@@ -973,13 +1051,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D35" s="2">
         <v>6</v>
@@ -987,13 +1065,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D36" s="2">
         <v>6</v>
@@ -1001,13 +1079,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D37" s="2">
         <v>6</v>
@@ -1015,13 +1093,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2">
         <v>6</v>
@@ -1029,13 +1107,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2">
         <v>6</v>
@@ -1043,13 +1121,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2">
         <v>6</v>
@@ -1057,13 +1135,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2">
         <v>6</v>
@@ -1071,13 +1149,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2">
         <v>6</v>
@@ -1085,13 +1163,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D43" s="2">
         <v>6</v>
@@ -1099,13 +1177,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D44" s="2">
         <v>5</v>
@@ -1113,13 +1191,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2">
         <v>5</v>
@@ -1127,13 +1205,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2">
         <v>5</v>
@@ -1141,13 +1219,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>
